--- a/library/relay.xlsx
+++ b/library/relay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\elem_altium_db2\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\elem_altium_db2\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E044213-2989-4C18-8EEA-FB4D78B695ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1387CC-A9B4-409B-88D4-B837EE3135EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="2010" windowWidth="18705" windowHeight="10440" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="relay" sheetId="5" r:id="rId1"/>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,12 +108,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -279,31 +273,30 @@
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -644,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D7E81C-1413-426F-8EBE-717C09928723}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A8" sqref="A8:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +694,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -729,27 +722,26 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -757,48 +749,9 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
